--- a/Final/Descricpcion y tablas.xlsx
+++ b/Final/Descricpcion y tablas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Usuario</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>boton</t>
+  </si>
+  <si>
+    <t>Materiales</t>
+  </si>
+  <si>
+    <t>idMat</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>cantidad</t>
   </si>
 </sst>
 </file>
@@ -462,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +616,31 @@
         <v>18</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
